--- a/server/assets/attachments/single_user_data_query.xlsx
+++ b/server/assets/attachments/single_user_data_query.xlsx
@@ -20,7 +20,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Phone #</t>
+    <t>Phone # (e.g. 12345678)</t>
   </si>
   <si>
     <t>Email</t>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -58,11 +58,6 @@
     <font>
       <color theme="1"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -95,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -105,14 +100,11 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -351,7 +343,7 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -360,661 +352,661 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="D40" s="5"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="D41" s="5"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="5"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="5"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="5"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="D45" s="5"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="D46" s="5"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="D47" s="5"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="D49" s="5"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="D50" s="5"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="5"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="5"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="D53" s="5"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="D54" s="5"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="5"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="5"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="5"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="D58" s="5"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="D59" s="5"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="D60" s="5"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="D61" s="5"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="D62" s="5"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="D63" s="5"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="D64" s="5"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="D65" s="5"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="D66" s="5"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="D67" s="5"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="D68" s="5"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="5"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="5"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="5"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="5"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="5"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="5"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="D75" s="5"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="D76" s="5"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="D77" s="5"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="D78" s="5"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="D79" s="5"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="D80" s="5"/>
+      <c r="D80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="D81" s="5"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="D82" s="5"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="D83" s="5"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="D84" s="5"/>
+      <c r="D84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="D85" s="5"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="D86" s="5"/>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="D87" s="5"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="D88" s="5"/>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="D89" s="5"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="D90" s="5"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="D91" s="5"/>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="D92" s="5"/>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="D93" s="5"/>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="D94" s="5"/>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="D95" s="5"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="D96" s="5"/>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="D97" s="5"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="D98" s="5"/>
+      <c r="D98" s="4"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="D99" s="5"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="D100" s="5"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="D101" s="5"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="D102" s="5"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="D103" s="5"/>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="D104" s="5"/>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="D105" s="5"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="D106" s="5"/>
+      <c r="D106" s="4"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="D107" s="5"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="D108" s="5"/>
+      <c r="D108" s="4"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="D109" s="5"/>
+      <c r="D109" s="4"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="D110" s="5"/>
+      <c r="D110" s="4"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="D111" s="5"/>
+      <c r="D111" s="4"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="D112" s="5"/>
+      <c r="D112" s="4"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="D113" s="5"/>
+      <c r="D113" s="4"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="D114" s="5"/>
+      <c r="D114" s="4"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="D115" s="5"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="D116" s="5"/>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="D117" s="5"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="D118" s="5"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="D119" s="5"/>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="D120" s="5"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="D121" s="5"/>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="D122" s="5"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="D123" s="5"/>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="D124" s="5"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="D125" s="5"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="D126" s="5"/>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="D127" s="5"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="D128" s="5"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="D129" s="5"/>
+      <c r="D129" s="4"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="D130" s="5"/>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="D131" s="5"/>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="D132" s="5"/>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="D133" s="5"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="D134" s="5"/>
+      <c r="D134" s="4"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="D135" s="5"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="D136" s="5"/>
+      <c r="D136" s="4"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="D137" s="5"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="D138" s="5"/>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="D139" s="5"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="D140" s="5"/>
+      <c r="D140" s="4"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="D141" s="5"/>
+      <c r="D141" s="4"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="D142" s="5"/>
+      <c r="D142" s="4"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="D143" s="5"/>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="D144" s="5"/>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="D145" s="5"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="D146" s="5"/>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="D147" s="5"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="D148" s="5"/>
+      <c r="D148" s="4"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="D149" s="5"/>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="D150" s="5"/>
+      <c r="D150" s="4"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="D151" s="5"/>
+      <c r="D151" s="4"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="D152" s="5"/>
+      <c r="D152" s="4"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="D153" s="5"/>
+      <c r="D153" s="4"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="D154" s="5"/>
+      <c r="D154" s="4"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="D155" s="5"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="D156" s="5"/>
+      <c r="D156" s="4"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="D157" s="5"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="D158" s="5"/>
+      <c r="D158" s="4"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="D159" s="5"/>
+      <c r="D159" s="4"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="D160" s="5"/>
+      <c r="D160" s="4"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="D161" s="5"/>
+      <c r="D161" s="4"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="D162" s="5"/>
+      <c r="D162" s="4"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="D163" s="5"/>
+      <c r="D163" s="4"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="D164" s="5"/>
+      <c r="D164" s="4"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="D165" s="5"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="D166" s="5"/>
+      <c r="D166" s="4"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="D167" s="5"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="D168" s="5"/>
+      <c r="D168" s="4"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="D169" s="5"/>
+      <c r="D169" s="4"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="D170" s="5"/>
+      <c r="D170" s="4"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="D171" s="5"/>
+      <c r="D171" s="4"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="D172" s="5"/>
+      <c r="D172" s="4"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="D173" s="5"/>
+      <c r="D173" s="4"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="D174" s="5"/>
+      <c r="D174" s="4"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="D175" s="5"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="D176" s="5"/>
+      <c r="D176" s="4"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="D177" s="5"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="D178" s="5"/>
+      <c r="D178" s="4"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="D179" s="5"/>
+      <c r="D179" s="4"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="D180" s="5"/>
+      <c r="D180" s="4"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="D181" s="5"/>
+      <c r="D181" s="4"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="D182" s="5"/>
+      <c r="D182" s="4"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="D183" s="5"/>
+      <c r="D183" s="4"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="D184" s="5"/>
+      <c r="D184" s="4"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="D185" s="5"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="D186" s="5"/>
+      <c r="D186" s="4"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="D187" s="5"/>
+      <c r="D187" s="4"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="D188" s="5"/>
+      <c r="D188" s="4"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="D189" s="5"/>
+      <c r="D189" s="4"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="D190" s="5"/>
+      <c r="D190" s="4"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="D191" s="5"/>
+      <c r="D191" s="4"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="D192" s="5"/>
+      <c r="D192" s="4"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="D193" s="5"/>
+      <c r="D193" s="4"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="D194" s="5"/>
+      <c r="D194" s="4"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="D195" s="5"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="D196" s="5"/>
+      <c r="D196" s="4"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="D197" s="5"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="D198" s="5"/>
+      <c r="D198" s="4"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="D199" s="5"/>
+      <c r="D199" s="4"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="D200" s="5"/>
+      <c r="D200" s="4"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="D201" s="5"/>
+      <c r="D201" s="4"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="D202" s="5"/>
+      <c r="D202" s="4"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="D203" s="5"/>
+      <c r="D203" s="4"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="D204" s="5"/>
+      <c r="D204" s="4"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="D205" s="5"/>
+      <c r="D205" s="4"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="D206" s="5"/>
+      <c r="D206" s="4"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="D207" s="5"/>
+      <c r="D207" s="4"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="D208" s="5"/>
+      <c r="D208" s="4"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="D209" s="5"/>
+      <c r="D209" s="4"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="D210" s="5"/>
+      <c r="D210" s="4"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="D211" s="5"/>
+      <c r="D211" s="4"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="D212" s="5"/>
+      <c r="D212" s="4"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="D213" s="5"/>
+      <c r="D213" s="4"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="D214" s="5"/>
+      <c r="D214" s="4"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="D215" s="5"/>
+      <c r="D215" s="4"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="D216" s="5"/>
+      <c r="D216" s="4"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="D217" s="5"/>
+      <c r="D217" s="4"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="D218" s="5"/>
+      <c r="D218" s="4"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="D219" s="5"/>
+      <c r="D219" s="4"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="D220" s="5"/>
+      <c r="D220" s="4"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -1798,14 +1790,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5">
-      <formula1>Sheet2!$C$2:$C$1000</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5">
       <formula1>Sheet2!$B$2:$B$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
       <formula1>Sheet2!$A$2:$A$1000</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5">
+      <formula1>Sheet2!$C$2:$C$1000</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -1832,18 +1824,18 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
